--- a/files/xl/emb_results.xlsx
+++ b/files/xl/emb_results.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Google Drive\Docs\fastai\course2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course-v3\files\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B560D6F-467B-488A-B1BD-7E8EB773939C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="8700" activeTab="1"/>
+    <workbookView xWindow="1650" yWindow="0" windowWidth="18270" windowHeight="8700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -99,12 +106,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +217,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="42751.491539699076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="42751.491539699076" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F17" sheet="Sheet1"/>
   </cacheSource>
@@ -379,7 +395,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -793,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1054,11 +1070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1066,6 +1082,7 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.265625" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="7" max="14" width="6.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1409,10 +1426,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="P19" t="s">
+      <c r="P19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2279,7 +2296,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
